--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3452,28 +3452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>424.3561110890253</v>
+        <v>460.9429129300599</v>
       </c>
       <c r="AB2" t="n">
-        <v>580.6227524623456</v>
+        <v>630.6824288370291</v>
       </c>
       <c r="AC2" t="n">
-        <v>525.2089318764899</v>
+        <v>570.4909829971707</v>
       </c>
       <c r="AD2" t="n">
-        <v>424356.1110890253</v>
+        <v>460942.9129300599</v>
       </c>
       <c r="AE2" t="n">
-        <v>580622.7524623456</v>
+        <v>630682.428837029</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.602869955551235e-06</v>
+        <v>4.815990886681716e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.838541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>525208.9318764899</v>
+        <v>570490.9829971706</v>
       </c>
     </row>
     <row r="3">
@@ -3558,28 +3558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>167.5539647809084</v>
+        <v>179.7496549031375</v>
       </c>
       <c r="AB3" t="n">
-        <v>229.2547265723629</v>
+        <v>245.9414078334639</v>
       </c>
       <c r="AC3" t="n">
-        <v>207.3749772293923</v>
+        <v>222.4691050508433</v>
       </c>
       <c r="AD3" t="n">
-        <v>167553.9647809084</v>
+        <v>179749.6549031375</v>
       </c>
       <c r="AE3" t="n">
-        <v>229254.7265723629</v>
+        <v>245941.4078334639</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.745620426750459e-06</v>
+        <v>8.780640261392009e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.202083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>207374.9772293923</v>
+        <v>222469.1050508433</v>
       </c>
     </row>
     <row r="4">
@@ -3664,28 +3664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>127.6018693536785</v>
+        <v>151.9077297264629</v>
       </c>
       <c r="AB4" t="n">
-        <v>174.5905070467995</v>
+        <v>207.846857507707</v>
       </c>
       <c r="AC4" t="n">
-        <v>157.9278340936173</v>
+        <v>188.0102451421274</v>
       </c>
       <c r="AD4" t="n">
-        <v>127601.8693536785</v>
+        <v>151907.7297264629</v>
       </c>
       <c r="AE4" t="n">
-        <v>174590.5070467995</v>
+        <v>207846.857507707</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.509617173596205e-06</v>
+        <v>1.01942342684289e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.758333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>157927.8340936173</v>
+        <v>188010.2451421274</v>
       </c>
     </row>
     <row r="5">
@@ -3770,28 +3770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>116.1922074817269</v>
+        <v>128.4731489499765</v>
       </c>
       <c r="AB5" t="n">
-        <v>158.9793043148467</v>
+        <v>175.7826302285969</v>
       </c>
       <c r="AC5" t="n">
-        <v>143.8065426399364</v>
+        <v>159.0061827120997</v>
       </c>
       <c r="AD5" t="n">
-        <v>116192.2074817269</v>
+        <v>128473.1489499766</v>
       </c>
       <c r="AE5" t="n">
-        <v>158979.3043148467</v>
+        <v>175782.6302285969</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.916926495191265e-06</v>
+        <v>1.094786315283734e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.56875</v>
       </c>
       <c r="AH5" t="n">
-        <v>143806.5426399364</v>
+        <v>159006.1827120997</v>
       </c>
     </row>
     <row r="6">
@@ -3876,28 +3876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>109.9957559728141</v>
+        <v>122.1061052404715</v>
       </c>
       <c r="AB6" t="n">
-        <v>150.5010459922092</v>
+        <v>167.0709601311125</v>
       </c>
       <c r="AC6" t="n">
-        <v>136.1374373922985</v>
+        <v>151.1259421818107</v>
       </c>
       <c r="AD6" t="n">
-        <v>109995.7559728141</v>
+        <v>122106.1052404715</v>
       </c>
       <c r="AE6" t="n">
-        <v>150501.0459922092</v>
+        <v>167070.9601311125</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.151216885764927e-06</v>
+        <v>1.138136171600351e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.470833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>136137.4373922985</v>
+        <v>151125.9421818107</v>
       </c>
     </row>
     <row r="7">
@@ -3982,28 +3982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>105.3248613124426</v>
+        <v>117.4352105801</v>
       </c>
       <c r="AB7" t="n">
-        <v>144.110121852563</v>
+        <v>160.6800359914664</v>
       </c>
       <c r="AC7" t="n">
-        <v>130.3564540828197</v>
+        <v>145.3449588723319</v>
       </c>
       <c r="AD7" t="n">
-        <v>105324.8613124425</v>
+        <v>117435.2105801</v>
       </c>
       <c r="AE7" t="n">
-        <v>144110.121852563</v>
+        <v>160680.0359914663</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.332842998009143e-06</v>
+        <v>1.171741757599223e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AH7" t="n">
-        <v>130356.4540828197</v>
+        <v>145344.9588723319</v>
       </c>
     </row>
     <row r="8">
@@ -4088,28 +4088,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>101.8982284802618</v>
+        <v>114.0085777479192</v>
       </c>
       <c r="AB8" t="n">
-        <v>139.4216516392043</v>
+        <v>155.9915657781076</v>
       </c>
       <c r="AC8" t="n">
-        <v>126.1154448863132</v>
+        <v>141.1039496758254</v>
       </c>
       <c r="AD8" t="n">
-        <v>101898.2284802618</v>
+        <v>114008.5777479192</v>
       </c>
       <c r="AE8" t="n">
-        <v>139421.6516392043</v>
+        <v>155991.5657781076</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.453927072838619e-06</v>
+        <v>1.194145481598471e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.354166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>126115.4448863132</v>
+        <v>141103.9496758254</v>
       </c>
     </row>
     <row r="9">
@@ -4194,28 +4194,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>99.06004850810791</v>
+        <v>111.1703977757653</v>
       </c>
       <c r="AB9" t="n">
-        <v>135.538328589642</v>
+        <v>152.1082427285453</v>
       </c>
       <c r="AC9" t="n">
-        <v>122.6027407383217</v>
+        <v>137.5912455278339</v>
       </c>
       <c r="AD9" t="n">
-        <v>99060.04850810791</v>
+        <v>111170.3977757653</v>
       </c>
       <c r="AE9" t="n">
-        <v>135538.328589642</v>
+        <v>152108.2427285453</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.545104840029491e-06</v>
+        <v>1.21101575569429e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.321875</v>
       </c>
       <c r="AH9" t="n">
-        <v>122602.7407383217</v>
+        <v>137591.2455278339</v>
       </c>
     </row>
     <row r="10">
@@ -4300,28 +4300,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>96.264517247528</v>
+        <v>108.3748665151854</v>
       </c>
       <c r="AB10" t="n">
-        <v>131.7133593887834</v>
+        <v>148.2832735276867</v>
       </c>
       <c r="AC10" t="n">
-        <v>119.1428212296139</v>
+        <v>134.1313260191261</v>
       </c>
       <c r="AD10" t="n">
-        <v>96264.517247528</v>
+        <v>108374.8665151854</v>
       </c>
       <c r="AE10" t="n">
-        <v>131713.3593887834</v>
+        <v>148283.2735276867</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.628988385845091e-06</v>
+        <v>1.226536407862444e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.292708333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>119142.8212296139</v>
+        <v>134131.3260191261</v>
       </c>
     </row>
     <row r="11">
@@ -4406,28 +4406,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>94.85888560503361</v>
+        <v>106.969234872691</v>
       </c>
       <c r="AB11" t="n">
-        <v>129.7901121634321</v>
+        <v>146.3600263023354</v>
       </c>
       <c r="AC11" t="n">
-        <v>117.403126020155</v>
+        <v>132.3916308096672</v>
       </c>
       <c r="AD11" t="n">
-        <v>94858.8856050336</v>
+        <v>106969.234872691</v>
       </c>
       <c r="AE11" t="n">
-        <v>129790.1121634321</v>
+        <v>146360.0263023354</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.65247577867346e-06</v>
+        <v>1.230882190469527e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>3</v>
+        <v>2.284375</v>
       </c>
       <c r="AH11" t="n">
-        <v>117403.126020155</v>
+        <v>132391.6308096673</v>
       </c>
     </row>
     <row r="12">
@@ -4512,28 +4512,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>94.61871778105417</v>
+        <v>106.7290670487116</v>
       </c>
       <c r="AB12" t="n">
-        <v>129.461503951207</v>
+        <v>146.0314180901103</v>
       </c>
       <c r="AC12" t="n">
-        <v>117.1058797145001</v>
+        <v>132.0943845040123</v>
       </c>
       <c r="AD12" t="n">
-        <v>94618.71778105418</v>
+        <v>106729.0670487116</v>
       </c>
       <c r="AE12" t="n">
-        <v>129461.503951207</v>
+        <v>146031.4180901103</v>
       </c>
       <c r="AF12" t="n">
-        <v>6.675379633791807e-06</v>
+        <v>1.235120003322396e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>3</v>
+        <v>2.276041666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>117105.8797145001</v>
+        <v>132094.3845040123</v>
       </c>
     </row>
   </sheetData>
@@ -4809,28 +4809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>271.0527410934117</v>
+        <v>306.2585366369918</v>
       </c>
       <c r="AB2" t="n">
-        <v>370.8663183669905</v>
+        <v>419.0364409997989</v>
       </c>
       <c r="AC2" t="n">
-        <v>335.4713574561911</v>
+        <v>379.044191192116</v>
       </c>
       <c r="AD2" t="n">
-        <v>271052.7410934117</v>
+        <v>306258.5366369918</v>
       </c>
       <c r="AE2" t="n">
-        <v>370866.3183669905</v>
+        <v>419036.4409997989</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.389559866274277e-06</v>
+        <v>6.461024224023221e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.6375</v>
       </c>
       <c r="AH2" t="n">
-        <v>335471.3574561911</v>
+        <v>379044.191192116</v>
       </c>
     </row>
     <row r="3">
@@ -4915,28 +4915,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>127.5921574195399</v>
+        <v>151.0342408304024</v>
       </c>
       <c r="AB3" t="n">
-        <v>174.5772187500507</v>
+        <v>206.6517114645073</v>
       </c>
       <c r="AC3" t="n">
-        <v>157.91581401326</v>
+        <v>186.9291621598923</v>
       </c>
       <c r="AD3" t="n">
-        <v>127592.1574195399</v>
+        <v>151034.2408304024</v>
       </c>
       <c r="AE3" t="n">
-        <v>174577.2187500508</v>
+        <v>206651.7114645073</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.354478363998724e-06</v>
+        <v>1.020646213127088e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.935416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>157915.81401326</v>
+        <v>186929.1621598923</v>
       </c>
     </row>
     <row r="4">
@@ -5021,28 +5021,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>108.6587631455577</v>
+        <v>120.5078161328464</v>
       </c>
       <c r="AB4" t="n">
-        <v>148.6717134219972</v>
+        <v>164.8841104625219</v>
       </c>
       <c r="AC4" t="n">
-        <v>134.4826937551026</v>
+        <v>149.1478023763269</v>
       </c>
       <c r="AD4" t="n">
-        <v>108658.7631455577</v>
+        <v>120507.8161328464</v>
       </c>
       <c r="AE4" t="n">
-        <v>148671.7134219972</v>
+        <v>164884.1104625219</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.048538284969134e-06</v>
+        <v>1.152944745657287e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.598958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>134482.6937551025</v>
+        <v>149147.8023763269</v>
       </c>
     </row>
     <row r="5">
@@ -5127,28 +5127,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>100.0900124734564</v>
+        <v>111.7684732601528</v>
       </c>
       <c r="AB5" t="n">
-        <v>136.9475707258342</v>
+        <v>152.926555991512</v>
       </c>
       <c r="AC5" t="n">
-        <v>123.87748678292</v>
+        <v>138.3314601214933</v>
       </c>
       <c r="AD5" t="n">
-        <v>100090.0124734564</v>
+        <v>111768.4732601529</v>
       </c>
       <c r="AE5" t="n">
-        <v>136947.5707258342</v>
+        <v>152926.555991512</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.415262705051345e-06</v>
+        <v>1.222848079870895e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="AH5" t="n">
-        <v>123877.48678292</v>
+        <v>138331.4601214933</v>
       </c>
     </row>
     <row r="6">
@@ -5233,28 +5233,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>94.81683358091831</v>
+        <v>106.4952943676148</v>
       </c>
       <c r="AB6" t="n">
-        <v>129.7325747288332</v>
+        <v>145.711559994511</v>
       </c>
       <c r="AC6" t="n">
-        <v>117.3510798775599</v>
+        <v>131.8050532161332</v>
       </c>
       <c r="AD6" t="n">
-        <v>94816.83358091832</v>
+        <v>106495.2943676148</v>
       </c>
       <c r="AE6" t="n">
-        <v>129732.5747288332</v>
+        <v>145711.559994511</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.64239038086358e-06</v>
+        <v>1.266142120196607e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.366666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>117351.0798775599</v>
+        <v>131805.0532161332</v>
       </c>
     </row>
     <row r="7">
@@ -5339,28 +5339,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>90.93409549066828</v>
+        <v>102.6125562773648</v>
       </c>
       <c r="AB7" t="n">
-        <v>124.4200411794406</v>
+        <v>140.3990264451184</v>
       </c>
       <c r="AC7" t="n">
-        <v>112.545567073932</v>
+        <v>126.9995404125053</v>
       </c>
       <c r="AD7" t="n">
-        <v>90934.09549066829</v>
+        <v>102612.5562773648</v>
       </c>
       <c r="AE7" t="n">
-        <v>124420.0411794406</v>
+        <v>140399.0264451184</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.777610578556445e-06</v>
+        <v>1.291917176762613e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.319791666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>112545.567073932</v>
+        <v>126999.5404125053</v>
       </c>
     </row>
     <row r="8">
@@ -5445,28 +5445,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>88.27619358900132</v>
+        <v>99.9546543756978</v>
       </c>
       <c r="AB8" t="n">
-        <v>120.7833825392254</v>
+        <v>136.7623678049032</v>
       </c>
       <c r="AC8" t="n">
-        <v>109.2559860302554</v>
+        <v>123.7099593688287</v>
       </c>
       <c r="AD8" t="n">
-        <v>88276.19358900133</v>
+        <v>99954.65437569781</v>
       </c>
       <c r="AE8" t="n">
-        <v>120783.3825392254</v>
+        <v>136762.3678049032</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.871630872264766e-06</v>
+        <v>1.309838895781163e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.2875</v>
       </c>
       <c r="AH8" t="n">
-        <v>109255.9860302554</v>
+        <v>123709.9593688287</v>
       </c>
     </row>
     <row r="9">
@@ -5551,28 +5551,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>87.91896278534666</v>
+        <v>99.59742357204316</v>
       </c>
       <c r="AB9" t="n">
-        <v>120.2946035937546</v>
+        <v>136.2735888594324</v>
       </c>
       <c r="AC9" t="n">
-        <v>108.8138554613346</v>
+        <v>123.2678287999079</v>
       </c>
       <c r="AD9" t="n">
-        <v>87918.96278534667</v>
+        <v>99597.42357204316</v>
       </c>
       <c r="AE9" t="n">
-        <v>120294.6035937546</v>
+        <v>136273.5888594324</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.894720928344016e-06</v>
+        <v>1.314240216824243e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.280208333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>108813.8554613346</v>
+        <v>123267.8287999079</v>
       </c>
     </row>
   </sheetData>
@@ -5848,28 +5848,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.89009481739558</v>
+        <v>117.7316389452055</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.5693022184104</v>
+        <v>161.0856223580999</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.9170740769048</v>
+        <v>145.7118366453782</v>
       </c>
       <c r="AD2" t="n">
-        <v>96890.09481739558</v>
+        <v>117731.6389452055</v>
       </c>
       <c r="AE2" t="n">
-        <v>132569.3022184104</v>
+        <v>161085.6223580999</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.909141982173501e-06</v>
+        <v>1.258492598223381e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.96875</v>
       </c>
       <c r="AH2" t="n">
-        <v>119917.0740769048</v>
+        <v>145711.8366453782</v>
       </c>
     </row>
     <row r="3">
@@ -5954,28 +5954,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.48177989769604</v>
+        <v>82.85997104286622</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.17276892643802</v>
+        <v>113.3726679047324</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.70785904997886</v>
+        <v>102.5525395994727</v>
       </c>
       <c r="AD3" t="n">
-        <v>72481.77989769605</v>
+        <v>82859.97104286622</v>
       </c>
       <c r="AE3" t="n">
-        <v>99172.76892643803</v>
+        <v>113372.6679047324</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.309047861278896e-06</v>
+        <v>1.556635914525204e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AH3" t="n">
-        <v>89707.85904997887</v>
+        <v>102552.5395994727</v>
       </c>
     </row>
     <row r="4">
@@ -6060,28 +6060,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>71.07740918461819</v>
+        <v>81.45560032978834</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.25124696034267</v>
+        <v>111.451145938637</v>
       </c>
       <c r="AC4" t="n">
-        <v>87.969724443454</v>
+        <v>100.8144049929478</v>
       </c>
       <c r="AD4" t="n">
-        <v>71077.40918461818</v>
+        <v>81455.60032978834</v>
       </c>
       <c r="AE4" t="n">
-        <v>97251.24696034267</v>
+        <v>111451.145938637</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.422717591628486e-06</v>
+        <v>1.58084459231947e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.363541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>87969.724443454</v>
+        <v>100814.4049929478</v>
       </c>
     </row>
   </sheetData>
@@ -6357,28 +6357,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.8490723875159</v>
+        <v>166.6220722793241</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.1888911305807</v>
+        <v>227.9796701395003</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.2740215209901</v>
+        <v>206.2216103929287</v>
       </c>
       <c r="AD2" t="n">
-        <v>144849.0723875159</v>
+        <v>166622.0722793241</v>
       </c>
       <c r="AE2" t="n">
-        <v>198188.8911305807</v>
+        <v>227979.6701395003</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.894295593416748e-06</v>
+        <v>9.937112167587076e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.429166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>179274.0215209901</v>
+        <v>206221.6103929287</v>
       </c>
     </row>
     <row r="3">
@@ -6463,28 +6463,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.5931528280187</v>
+        <v>101.6502897287905</v>
       </c>
       <c r="AB3" t="n">
-        <v>123.9535483870749</v>
+        <v>139.0824109011557</v>
       </c>
       <c r="AC3" t="n">
-        <v>112.1235956989429</v>
+        <v>125.8085808081765</v>
       </c>
       <c r="AD3" t="n">
-        <v>90593.1528280187</v>
+        <v>101650.2897287905</v>
       </c>
       <c r="AE3" t="n">
-        <v>123953.5483870749</v>
+        <v>139082.4109011557</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.527069979173126e-06</v>
+        <v>1.3252208672475e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.570833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>112123.5956989429</v>
+        <v>125808.5808081765</v>
       </c>
     </row>
     <row r="4">
@@ -6569,28 +6569,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>79.90714762013108</v>
+        <v>90.79369232031071</v>
       </c>
       <c r="AB4" t="n">
-        <v>109.3324846283727</v>
+        <v>124.2279353676067</v>
       </c>
       <c r="AC4" t="n">
-        <v>98.89794574457471</v>
+        <v>112.3717955711573</v>
       </c>
       <c r="AD4" t="n">
-        <v>79907.14762013109</v>
+        <v>90793.69232031071</v>
       </c>
       <c r="AE4" t="n">
-        <v>109332.4846283727</v>
+        <v>124227.9353676067</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.108327994349151e-06</v>
+        <v>1.443236340258211e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.360416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>98897.94574457471</v>
+        <v>112371.7955711573</v>
       </c>
     </row>
     <row r="5">
@@ -6675,28 +6675,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>76.76816114630928</v>
+        <v>87.65470584648888</v>
       </c>
       <c r="AB5" t="n">
-        <v>105.0375848525823</v>
+        <v>119.9330355918162</v>
       </c>
       <c r="AC5" t="n">
-        <v>95.0129451754546</v>
+        <v>108.4867950020372</v>
       </c>
       <c r="AD5" t="n">
-        <v>76768.16114630928</v>
+        <v>87654.70584648888</v>
       </c>
       <c r="AE5" t="n">
-        <v>105037.5848525823</v>
+        <v>119933.0355918162</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.27120267653955e-06</v>
+        <v>1.476305531836323e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.308333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>95012.9451754546</v>
+        <v>108486.7950020372</v>
       </c>
     </row>
     <row r="6">
@@ -6781,28 +6781,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>77.07772104527544</v>
+        <v>87.96426574545505</v>
       </c>
       <c r="AB6" t="n">
-        <v>105.4611383631664</v>
+        <v>120.3565891024004</v>
       </c>
       <c r="AC6" t="n">
-        <v>95.39607533344984</v>
+        <v>108.8699251600325</v>
       </c>
       <c r="AD6" t="n">
-        <v>77077.72104527544</v>
+        <v>87964.26574545505</v>
       </c>
       <c r="AE6" t="n">
-        <v>105461.1383631664</v>
+        <v>120356.5891024004</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.270719368877263e-06</v>
+        <v>1.476207403671403e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.308333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>95396.07533344984</v>
+        <v>108869.9251600325</v>
       </c>
     </row>
   </sheetData>
@@ -7078,28 +7078,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.79235320474157</v>
+        <v>94.79998894415668</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.3341972604362</v>
+        <v>129.709527153683</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.56756510087381</v>
+        <v>117.3302319306346</v>
       </c>
       <c r="AD2" t="n">
-        <v>74792.35320474158</v>
+        <v>94799.98894415668</v>
       </c>
       <c r="AE2" t="n">
-        <v>102334.1972604362</v>
+        <v>129709.527153683</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.81766598725299e-06</v>
+        <v>1.51816104995409e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>92567.56510087381</v>
+        <v>117330.2319306346</v>
       </c>
     </row>
     <row r="3">
@@ -7184,28 +7184,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.54608521102261</v>
+        <v>76.5073221619954</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.0512895917674</v>
+        <v>104.6806934468404</v>
       </c>
       <c r="AC3" t="n">
-        <v>82.36148230443878</v>
+        <v>94.69011498457634</v>
       </c>
       <c r="AD3" t="n">
-        <v>66546.08521102261</v>
+        <v>76507.3221619954</v>
       </c>
       <c r="AE3" t="n">
-        <v>91051.2895917674</v>
+        <v>104680.6934468403</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.449919201483501e-06</v>
+        <v>1.658951491337944e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.445833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>82361.48230443877</v>
+        <v>94690.11498457634</v>
       </c>
     </row>
   </sheetData>
@@ -7481,28 +7481,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>297.2077912119968</v>
+        <v>332.7541413402008</v>
       </c>
       <c r="AB2" t="n">
-        <v>406.6528118186131</v>
+        <v>455.2888962583118</v>
       </c>
       <c r="AC2" t="n">
-        <v>367.8424381994499</v>
+        <v>411.8367630013969</v>
       </c>
       <c r="AD2" t="n">
-        <v>297207.7912119968</v>
+        <v>332754.1413402008</v>
       </c>
       <c r="AE2" t="n">
-        <v>406652.8118186131</v>
+        <v>455288.8962583118</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.193997743538428e-06</v>
+        <v>6.039094891145753e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.878125</v>
       </c>
       <c r="AH2" t="n">
-        <v>367842.4381994499</v>
+        <v>411836.763001397</v>
       </c>
     </row>
     <row r="3">
@@ -7587,28 +7587,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>133.6049848324502</v>
+        <v>157.2741046330619</v>
       </c>
       <c r="AB3" t="n">
-        <v>182.8042344836144</v>
+        <v>215.1893684026642</v>
       </c>
       <c r="AC3" t="n">
-        <v>165.357654911904</v>
+        <v>194.651997102551</v>
       </c>
       <c r="AD3" t="n">
-        <v>133604.9848324502</v>
+        <v>157274.1046330619</v>
       </c>
       <c r="AE3" t="n">
-        <v>182804.2344836144</v>
+        <v>215189.3684026642</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.206024885504267e-06</v>
+        <v>9.843362711457786e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.992708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>165357.654911904</v>
+        <v>194651.997102551</v>
       </c>
     </row>
     <row r="4">
@@ -7693,28 +7693,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>113.2531972503325</v>
+        <v>125.2157684324958</v>
       </c>
       <c r="AB4" t="n">
-        <v>154.9580208562744</v>
+        <v>171.3257384990958</v>
       </c>
       <c r="AC4" t="n">
-        <v>140.1690448307422</v>
+        <v>154.9746504739739</v>
       </c>
       <c r="AD4" t="n">
-        <v>113253.1972503325</v>
+        <v>125215.7684324958</v>
       </c>
       <c r="AE4" t="n">
-        <v>154958.0208562744</v>
+        <v>171325.7384990958</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.904020178119636e-06</v>
+        <v>1.116310685160469e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.638541666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>140169.0448307422</v>
+        <v>154974.6504739739</v>
       </c>
     </row>
     <row r="5">
@@ -7799,28 +7799,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>103.8787605758292</v>
+        <v>115.6707395574004</v>
       </c>
       <c r="AB5" t="n">
-        <v>142.1315030272677</v>
+        <v>158.2658088952423</v>
       </c>
       <c r="AC5" t="n">
-        <v>128.5666718612011</v>
+        <v>143.1611422217817</v>
       </c>
       <c r="AD5" t="n">
-        <v>103878.7605758292</v>
+        <v>115670.7395574003</v>
       </c>
       <c r="AE5" t="n">
-        <v>142131.5030272678</v>
+        <v>158265.8088952423</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.290332978810765e-06</v>
+        <v>1.189353305987541e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.477083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>128566.6718612011</v>
+        <v>143161.1422217817</v>
       </c>
     </row>
     <row r="6">
@@ -7905,28 +7905,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>98.77365811630204</v>
+        <v>110.5656370978731</v>
       </c>
       <c r="AB6" t="n">
-        <v>135.1464766209209</v>
+        <v>151.2807824888955</v>
       </c>
       <c r="AC6" t="n">
-        <v>122.2482865715276</v>
+        <v>136.8427569321083</v>
       </c>
       <c r="AD6" t="n">
-        <v>98773.65811630205</v>
+        <v>110565.6370978731</v>
       </c>
       <c r="AE6" t="n">
-        <v>135146.4766209209</v>
+        <v>151280.7824888955</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.50689547799805e-06</v>
+        <v>1.230300156532488e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.39375</v>
       </c>
       <c r="AH6" t="n">
-        <v>122248.2865715276</v>
+        <v>136842.7569321083</v>
       </c>
     </row>
     <row r="7">
@@ -8011,28 +8011,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>94.66272544453621</v>
+        <v>106.4547044261073</v>
       </c>
       <c r="AB7" t="n">
-        <v>129.5217171778642</v>
+        <v>145.6560230458386</v>
       </c>
       <c r="AC7" t="n">
-        <v>117.1603462753149</v>
+        <v>131.7548166358956</v>
       </c>
       <c r="AD7" t="n">
-        <v>94662.72544453621</v>
+        <v>106454.7044261073</v>
       </c>
       <c r="AE7" t="n">
-        <v>129521.7171778641</v>
+        <v>145656.0230458386</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.664980120015288e-06</v>
+        <v>1.260190226301832e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.3375</v>
       </c>
       <c r="AH7" t="n">
-        <v>117160.3462753149</v>
+        <v>131754.8166358956</v>
       </c>
     </row>
     <row r="8">
@@ -8117,28 +8117,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>90.89557439088503</v>
+        <v>102.6875533724561</v>
       </c>
       <c r="AB8" t="n">
-        <v>124.3673349112862</v>
+        <v>140.5016407792607</v>
       </c>
       <c r="AC8" t="n">
-        <v>112.4978910180366</v>
+        <v>127.0923613786172</v>
       </c>
       <c r="AD8" t="n">
-        <v>90895.57439088503</v>
+        <v>102687.5533724561</v>
       </c>
       <c r="AE8" t="n">
-        <v>124367.3349112861</v>
+        <v>140501.6407792607</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.793751053578998e-06</v>
+        <v>1.284537766577523e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.292708333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>112497.8910180365</v>
+        <v>127092.3613786172</v>
       </c>
     </row>
     <row r="9">
@@ -8223,28 +8223,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>89.48450400588855</v>
+        <v>101.2764829874597</v>
       </c>
       <c r="AB9" t="n">
-        <v>122.4366461585031</v>
+        <v>138.5709520264776</v>
       </c>
       <c r="AC9" t="n">
-        <v>110.7514644900798</v>
+        <v>125.3459348506605</v>
       </c>
       <c r="AD9" t="n">
-        <v>89484.50400588855</v>
+        <v>101276.4829874597</v>
       </c>
       <c r="AE9" t="n">
-        <v>122436.6461585031</v>
+        <v>138570.9520264776</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.837721616259289e-06</v>
+        <v>1.292851560818003e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.278125</v>
       </c>
       <c r="AH9" t="n">
-        <v>110751.4644900798</v>
+        <v>125345.9348506605</v>
       </c>
     </row>
     <row r="10">
@@ -8329,28 +8329,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>89.63583059008693</v>
+        <v>101.427809571658</v>
       </c>
       <c r="AB10" t="n">
-        <v>122.6436978670609</v>
+        <v>138.7780037350354</v>
       </c>
       <c r="AC10" t="n">
-        <v>110.9387554741718</v>
+        <v>125.5332258347525</v>
       </c>
       <c r="AD10" t="n">
-        <v>89635.83059008693</v>
+        <v>101427.809571658</v>
       </c>
       <c r="AE10" t="n">
-        <v>122643.6978670609</v>
+        <v>138778.0037350354</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.833982622834094e-06</v>
+        <v>1.292144605525445e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.279166666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>110938.7554741718</v>
+        <v>125533.2258347525</v>
       </c>
     </row>
   </sheetData>
@@ -8626,28 +8626,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.78271549049892</v>
+        <v>74.66764532986917</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.63856934576648</v>
+        <v>102.1635664443127</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.17902869244129</v>
+        <v>92.41321905035925</v>
       </c>
       <c r="AD2" t="n">
-        <v>64782.71549049892</v>
+        <v>74667.64532986918</v>
       </c>
       <c r="AE2" t="n">
-        <v>88638.56934576649</v>
+        <v>102163.5664443127</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.322519412938826e-06</v>
+        <v>1.678736451903776e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.545833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>80179.02869244129</v>
+        <v>92413.21905035924</v>
       </c>
     </row>
     <row r="3">
@@ -8732,28 +8732,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>64.36859533191497</v>
+        <v>74.25352517128523</v>
       </c>
       <c r="AB3" t="n">
-        <v>88.0719518751002</v>
+        <v>101.5969489736465</v>
       </c>
       <c r="AC3" t="n">
-        <v>79.66648839792261</v>
+        <v>91.90067875584056</v>
       </c>
       <c r="AD3" t="n">
-        <v>64368.59533191497</v>
+        <v>74253.52517128523</v>
       </c>
       <c r="AE3" t="n">
-        <v>88071.9518751002</v>
+        <v>101596.9489736465</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.39232417378667e-06</v>
+        <v>1.694739659262249e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.521875</v>
       </c>
       <c r="AH3" t="n">
-        <v>79666.4883979226</v>
+        <v>91900.67875584056</v>
       </c>
     </row>
   </sheetData>
@@ -9029,28 +9029,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>192.2592803660958</v>
+        <v>226.2744706569231</v>
       </c>
       <c r="AB2" t="n">
-        <v>263.0576292776001</v>
+        <v>309.5987132777722</v>
       </c>
       <c r="AC2" t="n">
-        <v>237.9517783431243</v>
+        <v>280.0510466071564</v>
       </c>
       <c r="AD2" t="n">
-        <v>192259.2803660958</v>
+        <v>226274.4706569231</v>
       </c>
       <c r="AE2" t="n">
-        <v>263057.6292776002</v>
+        <v>309598.7132777722</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.087977748817334e-06</v>
+        <v>8.012379892098551e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.9625</v>
       </c>
       <c r="AH2" t="n">
-        <v>237951.7783431243</v>
+        <v>280051.0466071564</v>
       </c>
     </row>
     <row r="3">
@@ -9135,28 +9135,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.7463836398464</v>
+        <v>131.4516241185884</v>
       </c>
       <c r="AB3" t="n">
-        <v>148.7915996478263</v>
+        <v>179.8579113553402</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.5911382078</v>
+        <v>162.6925247278009</v>
       </c>
       <c r="AD3" t="n">
-        <v>108746.3836398464</v>
+        <v>131451.6241185884</v>
       </c>
       <c r="AE3" t="n">
-        <v>148791.5996478263</v>
+        <v>179857.9113553402</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.888236634968758e-06</v>
+        <v>1.154086242949603e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.751041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>134591.1382078</v>
+        <v>162692.5247278009</v>
       </c>
     </row>
     <row r="4">
@@ -9241,28 +9241,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>94.4823619326546</v>
+        <v>105.7924012532908</v>
       </c>
       <c r="AB4" t="n">
-        <v>129.2749358638313</v>
+        <v>144.7498306260378</v>
       </c>
       <c r="AC4" t="n">
-        <v>116.9371174235335</v>
+        <v>130.9351099487912</v>
       </c>
       <c r="AD4" t="n">
-        <v>94482.3619326546</v>
+        <v>105792.4012532909</v>
       </c>
       <c r="AE4" t="n">
-        <v>129274.9358638313</v>
+        <v>144749.8306260378</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.528542913529093e-06</v>
+        <v>1.279585388648366e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.48125</v>
       </c>
       <c r="AH4" t="n">
-        <v>116937.1174235335</v>
+        <v>130935.1099487912</v>
       </c>
     </row>
     <row r="5">
@@ -9347,28 +9347,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>87.49997090178856</v>
+        <v>98.81001022242481</v>
       </c>
       <c r="AB5" t="n">
-        <v>119.7213204140534</v>
+        <v>135.1962151762599</v>
       </c>
       <c r="AC5" t="n">
-        <v>108.2952856236959</v>
+        <v>122.2932781489535</v>
       </c>
       <c r="AD5" t="n">
-        <v>87499.97090178856</v>
+        <v>98810.01022242481</v>
       </c>
       <c r="AE5" t="n">
-        <v>119721.3204140534</v>
+        <v>135196.2151762599</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.864089525751825e-06</v>
+        <v>1.345352060920812e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.359375</v>
       </c>
       <c r="AH5" t="n">
-        <v>108295.2856236959</v>
+        <v>122293.2781489535</v>
       </c>
     </row>
     <row r="6">
@@ -9453,28 +9453,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>83.05664589576543</v>
+        <v>94.36668521640169</v>
       </c>
       <c r="AB6" t="n">
-        <v>113.6417671151511</v>
+        <v>129.1166618773576</v>
       </c>
       <c r="AC6" t="n">
-        <v>102.7959563589322</v>
+        <v>116.7939488841899</v>
       </c>
       <c r="AD6" t="n">
-        <v>83056.64589576542</v>
+        <v>94366.68521640169</v>
       </c>
       <c r="AE6" t="n">
-        <v>113641.7671151511</v>
+        <v>129116.6618773576</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.046167877425975e-06</v>
+        <v>1.381039166217861e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.298958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>102795.9563589322</v>
+        <v>116793.9488841899</v>
       </c>
     </row>
     <row r="7">
@@ -9559,28 +9559,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>82.18476136667408</v>
+        <v>93.49480068731035</v>
       </c>
       <c r="AB7" t="n">
-        <v>112.4488162376182</v>
+        <v>127.9237109998247</v>
       </c>
       <c r="AC7" t="n">
-        <v>101.7168590388336</v>
+        <v>115.7148515640913</v>
       </c>
       <c r="AD7" t="n">
-        <v>82184.76136667408</v>
+        <v>93494.80068731034</v>
       </c>
       <c r="AE7" t="n">
-        <v>112448.8162376182</v>
+        <v>127923.7109998247</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.092348296253663e-06</v>
+        <v>1.390090464487054e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.283333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>101716.8590388336</v>
+        <v>115714.8515640913</v>
       </c>
     </row>
   </sheetData>
@@ -9856,28 +9856,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>246.0938460859225</v>
+        <v>269.3003492719142</v>
       </c>
       <c r="AB2" t="n">
-        <v>336.7164571088497</v>
+        <v>368.4686185667467</v>
       </c>
       <c r="AC2" t="n">
-        <v>304.5807110269969</v>
+        <v>333.3024907596898</v>
       </c>
       <c r="AD2" t="n">
-        <v>246093.8460859225</v>
+        <v>269300.3492719142</v>
       </c>
       <c r="AE2" t="n">
-        <v>336716.4571088497</v>
+        <v>368468.6185667467</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.609144376919213e-06</v>
+        <v>6.939313014134846e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.396875000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>304580.711026997</v>
+        <v>333302.4907596898</v>
       </c>
     </row>
     <row r="3">
@@ -9962,28 +9962,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.7849755751082</v>
+        <v>143.9913892525454</v>
       </c>
       <c r="AB3" t="n">
-        <v>165.263332238836</v>
+        <v>197.0153712270053</v>
       </c>
       <c r="AC3" t="n">
-        <v>149.4908317585508</v>
+        <v>178.212500709966</v>
       </c>
       <c r="AD3" t="n">
-        <v>120784.9755751082</v>
+        <v>143991.3892525454</v>
       </c>
       <c r="AE3" t="n">
-        <v>165263.332238836</v>
+        <v>197015.3712270054</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.533919812039404e-06</v>
+        <v>1.064008467393137e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.867708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>149490.8317585508</v>
+        <v>178212.500709966</v>
       </c>
     </row>
     <row r="4">
@@ -10068,28 +10068,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>103.9161191142556</v>
+        <v>115.6473372348317</v>
       </c>
       <c r="AB4" t="n">
-        <v>142.1826186276851</v>
+        <v>158.2337888050662</v>
       </c>
       <c r="AC4" t="n">
-        <v>128.6129090604558</v>
+        <v>143.1321780840715</v>
       </c>
       <c r="AD4" t="n">
-        <v>103916.1191142556</v>
+        <v>115647.3372348316</v>
       </c>
       <c r="AE4" t="n">
-        <v>142182.6186276851</v>
+        <v>158233.7888050662</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.199684308752657e-06</v>
+        <v>1.192015212314071e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.559375</v>
       </c>
       <c r="AH4" t="n">
-        <v>128612.9090604558</v>
+        <v>143132.1780840716</v>
       </c>
     </row>
     <row r="5">
@@ -10174,28 +10174,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>96.10456135132952</v>
+        <v>107.6651872713134</v>
       </c>
       <c r="AB5" t="n">
-        <v>131.4945006748486</v>
+        <v>147.3122590773829</v>
       </c>
       <c r="AC5" t="n">
-        <v>118.9448500841669</v>
+        <v>133.2529838251317</v>
       </c>
       <c r="AD5" t="n">
-        <v>96104.56135132952</v>
+        <v>107665.1872713134</v>
       </c>
       <c r="AE5" t="n">
-        <v>131494.5006748486</v>
+        <v>147312.2590773829</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.550391373154008e-06</v>
+        <v>1.259445767647707e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.422916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>118944.8500841669</v>
+        <v>133252.9838251316</v>
       </c>
     </row>
     <row r="6">
@@ -10280,28 +10280,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>90.75216821911923</v>
+        <v>102.3127941391031</v>
       </c>
       <c r="AB6" t="n">
-        <v>124.1711202604425</v>
+        <v>139.9888786629767</v>
       </c>
       <c r="AC6" t="n">
-        <v>112.3204028180803</v>
+        <v>126.6285365590451</v>
       </c>
       <c r="AD6" t="n">
-        <v>90752.16821911922</v>
+        <v>102312.7941391031</v>
       </c>
       <c r="AE6" t="n">
-        <v>124171.1202604425</v>
+        <v>139988.8786629767</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.780438144329526e-06</v>
+        <v>1.303676931224506e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.340625</v>
       </c>
       <c r="AH6" t="n">
-        <v>112320.4028180803</v>
+        <v>126628.5365590451</v>
       </c>
     </row>
     <row r="7">
@@ -10386,28 +10386,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>86.93606025995189</v>
+        <v>98.49668617993572</v>
       </c>
       <c r="AB7" t="n">
-        <v>118.9497529959111</v>
+        <v>134.7675113984453</v>
       </c>
       <c r="AC7" t="n">
-        <v>107.5973555170392</v>
+        <v>121.9054892580039</v>
       </c>
       <c r="AD7" t="n">
-        <v>86936.06025995189</v>
+        <v>98496.68617993573</v>
       </c>
       <c r="AE7" t="n">
-        <v>118949.7529959111</v>
+        <v>134767.5113984453</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.923493719252581e-06</v>
+        <v>1.331182270693787e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.291666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>107597.3555170392</v>
+        <v>121905.4892580039</v>
       </c>
     </row>
     <row r="8">
@@ -10492,28 +10492,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>85.78963302442405</v>
+        <v>97.35025894440791</v>
       </c>
       <c r="AB8" t="n">
-        <v>117.3811606754626</v>
+        <v>133.1989190779968</v>
       </c>
       <c r="AC8" t="n">
-        <v>106.1784674461206</v>
+        <v>120.4866011870854</v>
       </c>
       <c r="AD8" t="n">
-        <v>85789.63302442405</v>
+        <v>97350.25894440791</v>
       </c>
       <c r="AE8" t="n">
-        <v>117381.1606754626</v>
+        <v>133198.9190779968</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.96203797958861e-06</v>
+        <v>1.338593187504998e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.279166666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>106178.4674461206</v>
+        <v>120486.6011870854</v>
       </c>
     </row>
   </sheetData>
@@ -10789,28 +10789,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>382.5329256281326</v>
+        <v>418.8114919462412</v>
       </c>
       <c r="AB2" t="n">
-        <v>523.3984250060311</v>
+        <v>573.0363599398557</v>
       </c>
       <c r="AC2" t="n">
-        <v>473.4460139177579</v>
+        <v>518.3465740087776</v>
       </c>
       <c r="AD2" t="n">
-        <v>382532.9256281326</v>
+        <v>418811.4919462412</v>
       </c>
       <c r="AE2" t="n">
-        <v>523398.4250060311</v>
+        <v>573036.3599398558</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.781021568494438e-06</v>
+        <v>5.180832251563444e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.508333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>473446.0139177579</v>
+        <v>518346.5740087776</v>
       </c>
     </row>
     <row r="3">
@@ -10895,28 +10895,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>160.3347190759484</v>
+        <v>172.4276640238689</v>
       </c>
       <c r="AB3" t="n">
-        <v>219.3770361081991</v>
+        <v>235.9231368890139</v>
       </c>
       <c r="AC3" t="n">
-        <v>198.4399996796995</v>
+        <v>213.4069638245968</v>
       </c>
       <c r="AD3" t="n">
-        <v>160334.7190759484</v>
+        <v>172427.6640238689</v>
       </c>
       <c r="AE3" t="n">
-        <v>219377.0361081991</v>
+        <v>235923.1368890139</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.885904327136008e-06</v>
+        <v>9.102069183082012e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.135416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>198439.9996796995</v>
+        <v>213406.9638245968</v>
       </c>
     </row>
     <row r="4">
@@ -11001,28 +11001,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>122.4980718631826</v>
+        <v>146.5984418873497</v>
       </c>
       <c r="AB4" t="n">
-        <v>167.6072661566525</v>
+        <v>200.5824556569876</v>
       </c>
       <c r="AC4" t="n">
-        <v>151.6110639129835</v>
+        <v>181.4391476083863</v>
       </c>
       <c r="AD4" t="n">
-        <v>122498.0718631826</v>
+        <v>146598.4418873497</v>
       </c>
       <c r="AE4" t="n">
-        <v>167607.2661566525</v>
+        <v>200582.4556569876</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.643950339487363e-06</v>
+        <v>1.051425140901314e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.713541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>151611.0639129835</v>
+        <v>181439.1476083863</v>
       </c>
     </row>
     <row r="5">
@@ -11107,28 +11107,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>112.7616998263713</v>
+        <v>124.9398961203123</v>
       </c>
       <c r="AB5" t="n">
-        <v>154.285532397475</v>
+        <v>170.9482778309391</v>
       </c>
       <c r="AC5" t="n">
-        <v>139.560737726607</v>
+        <v>154.6332141222166</v>
       </c>
       <c r="AD5" t="n">
-        <v>112761.6998263713</v>
+        <v>124939.8961203123</v>
       </c>
       <c r="AE5" t="n">
-        <v>154285.532397475</v>
+        <v>170948.2778309391</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.009518212757096e-06</v>
+        <v>1.119527662989865e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.548958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>139560.737726607</v>
+        <v>154633.2141222166</v>
       </c>
     </row>
     <row r="6">
@@ -11213,28 +11213,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>106.1133163819898</v>
+        <v>118.1209204753386</v>
       </c>
       <c r="AB6" t="n">
-        <v>145.1889208628998</v>
+        <v>161.6182545215169</v>
       </c>
       <c r="AC6" t="n">
-        <v>131.3322940297142</v>
+        <v>146.1936351426727</v>
       </c>
       <c r="AD6" t="n">
-        <v>106113.3163819898</v>
+        <v>118120.9204753386</v>
       </c>
       <c r="AE6" t="n">
-        <v>145188.9208628998</v>
+        <v>161618.2545215169</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.276268060750375e-06</v>
+        <v>1.169221136468799e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.440625</v>
       </c>
       <c r="AH6" t="n">
-        <v>131332.2940297142</v>
+        <v>146193.6351426727</v>
       </c>
     </row>
     <row r="7">
@@ -11319,28 +11319,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>102.0085666670559</v>
+        <v>114.0161707604046</v>
       </c>
       <c r="AB7" t="n">
-        <v>139.5726212141531</v>
+        <v>156.0019548727702</v>
       </c>
       <c r="AC7" t="n">
-        <v>126.2520061369161</v>
+        <v>141.1133472498746</v>
       </c>
       <c r="AD7" t="n">
-        <v>102008.5666670559</v>
+        <v>114016.1707604046</v>
       </c>
       <c r="AE7" t="n">
-        <v>139572.6212141531</v>
+        <v>156001.9548727702</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.431406478409091e-06</v>
+        <v>1.198122247009194e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.38125</v>
       </c>
       <c r="AH7" t="n">
-        <v>126252.0061369161</v>
+        <v>141113.3472498746</v>
       </c>
     </row>
     <row r="8">
@@ -11425,28 +11425,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>98.59783561250249</v>
+        <v>110.6054397058513</v>
       </c>
       <c r="AB8" t="n">
-        <v>134.9059085144811</v>
+        <v>151.3352421730983</v>
       </c>
       <c r="AC8" t="n">
-        <v>122.0306779475269</v>
+        <v>136.8920190604854</v>
       </c>
       <c r="AD8" t="n">
-        <v>98597.83561250249</v>
+        <v>110605.4397058513</v>
       </c>
       <c r="AE8" t="n">
-        <v>134905.9085144811</v>
+        <v>151335.2421730983</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.549782237854842e-06</v>
+        <v>1.220174753156131e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.338541666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>122030.6779475269</v>
+        <v>136892.0190604854</v>
       </c>
     </row>
     <row r="9">
@@ -11531,28 +11531,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>95.39520346937391</v>
+        <v>107.4028075627227</v>
       </c>
       <c r="AB9" t="n">
-        <v>130.5239259260964</v>
+        <v>146.9532595847135</v>
       </c>
       <c r="AC9" t="n">
-        <v>118.066905627225</v>
+        <v>132.9282467401836</v>
       </c>
       <c r="AD9" t="n">
-        <v>95395.20346937391</v>
+        <v>107402.8075627227</v>
       </c>
       <c r="AE9" t="n">
-        <v>130523.9259260964</v>
+        <v>146953.2595847136</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.655217541609628e-06</v>
+        <v>1.239816550556569e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.302083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>118066.905627225</v>
+        <v>132928.2467401836</v>
       </c>
     </row>
     <row r="10">
@@ -11637,28 +11637,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>93.54031103697142</v>
+        <v>105.5479151303202</v>
       </c>
       <c r="AB10" t="n">
-        <v>127.9859802680059</v>
+        <v>144.415313926623</v>
       </c>
       <c r="AC10" t="n">
-        <v>115.7711779407127</v>
+        <v>130.6325190536713</v>
       </c>
       <c r="AD10" t="n">
-        <v>93540.31103697141</v>
+        <v>105547.9151303202</v>
       </c>
       <c r="AE10" t="n">
-        <v>127985.9802680059</v>
+        <v>144415.313926623</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.701538490957964e-06</v>
+        <v>1.248445792092327e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.285416666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>115771.1779407127</v>
+        <v>130632.5190536713</v>
       </c>
     </row>
     <row r="11">
@@ -11743,28 +11743,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>92.90144615887297</v>
+        <v>104.9090502522218</v>
       </c>
       <c r="AB11" t="n">
-        <v>127.1118571570628</v>
+        <v>143.5411908156799</v>
       </c>
       <c r="AC11" t="n">
-        <v>114.9804799126383</v>
+        <v>129.8418210255969</v>
       </c>
       <c r="AD11" t="n">
-        <v>92901.44615887298</v>
+        <v>104909.0502522218</v>
       </c>
       <c r="AE11" t="n">
-        <v>127111.8571570628</v>
+        <v>143541.1908156799</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.728154655504151e-06</v>
+        <v>1.253404181673191e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>3</v>
+        <v>2.277083333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>114980.4799126383</v>
+        <v>129841.8210255968</v>
       </c>
     </row>
   </sheetData>
@@ -12040,28 +12040,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.2421738921038</v>
+        <v>181.4831408703216</v>
       </c>
       <c r="AB2" t="n">
-        <v>217.8821675879718</v>
+        <v>248.3132398097674</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.0877993129811</v>
+        <v>224.6145727122163</v>
       </c>
       <c r="AD2" t="n">
-        <v>159242.1738921038</v>
+        <v>181483.1408703216</v>
       </c>
       <c r="AE2" t="n">
-        <v>217882.1675879718</v>
+        <v>248313.2398097674</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.607616241529045e-06</v>
+        <v>9.235954568835794e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.596875</v>
       </c>
       <c r="AH2" t="n">
-        <v>197087.7993129811</v>
+        <v>224614.5727122163</v>
       </c>
     </row>
     <row r="3">
@@ -12146,28 +12146,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.29729170640533</v>
+        <v>107.5031160500859</v>
       </c>
       <c r="AB3" t="n">
-        <v>131.7582028493264</v>
+        <v>147.0905060824219</v>
       </c>
       <c r="AC3" t="n">
-        <v>119.1833848932209</v>
+        <v>133.0523946247773</v>
       </c>
       <c r="AD3" t="n">
-        <v>96297.29170640533</v>
+        <v>107503.1160500859</v>
       </c>
       <c r="AE3" t="n">
-        <v>131758.2028493264</v>
+        <v>147090.5060824219</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.314771228507194e-06</v>
+        <v>1.265794222474771e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.623958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>119183.3848932209</v>
+        <v>133052.3946247773</v>
       </c>
     </row>
     <row r="4">
@@ -12252,28 +12252,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>85.01320874280439</v>
+        <v>96.0484408858927</v>
       </c>
       <c r="AB4" t="n">
-        <v>116.3188227199293</v>
+        <v>131.4177141781778</v>
       </c>
       <c r="AC4" t="n">
-        <v>105.2175175340624</v>
+        <v>118.8753919829678</v>
       </c>
       <c r="AD4" t="n">
-        <v>85013.20874280439</v>
+        <v>96048.44088589271</v>
       </c>
       <c r="AE4" t="n">
-        <v>116318.8227199293</v>
+        <v>131417.7141781778</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.894004413446851e-06</v>
+        <v>1.381901361186683e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.404166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>105217.5175340624</v>
+        <v>118875.3919829678</v>
       </c>
     </row>
     <row r="5">
@@ -12358,28 +12358,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>79.25172905884689</v>
+        <v>90.28696120193518</v>
       </c>
       <c r="AB5" t="n">
-        <v>108.4357120377979</v>
+        <v>123.5346034960465</v>
       </c>
       <c r="AC5" t="n">
-        <v>98.08675987141582</v>
+        <v>111.7446343203212</v>
       </c>
       <c r="AD5" t="n">
-        <v>79251.72905884689</v>
+        <v>90286.96120193519</v>
       </c>
       <c r="AE5" t="n">
-        <v>108435.7120377979</v>
+        <v>123534.6034960465</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.175109889356868e-06</v>
+        <v>1.438248879479446e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.309375</v>
       </c>
       <c r="AH5" t="n">
-        <v>98086.75987141582</v>
+        <v>111744.6343203212</v>
       </c>
     </row>
     <row r="6">
@@ -12464,28 +12464,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>78.61939730247393</v>
+        <v>89.65462944556225</v>
       </c>
       <c r="AB6" t="n">
-        <v>107.5705278322206</v>
+        <v>122.6694192904692</v>
       </c>
       <c r="AC6" t="n">
-        <v>97.30414763212491</v>
+        <v>110.9620220810303</v>
       </c>
       <c r="AD6" t="n">
-        <v>78619.39730247392</v>
+        <v>89654.62944556226</v>
       </c>
       <c r="AE6" t="n">
-        <v>107570.5278322206</v>
+        <v>122669.4192904692</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.227131106460759e-06</v>
+        <v>1.448676518688124e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.292708333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>97304.14763212491</v>
+        <v>110962.0220810303</v>
       </c>
     </row>
   </sheetData>
@@ -12761,28 +12761,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.2745946992879</v>
+        <v>129.9199332147109</v>
       </c>
       <c r="AB2" t="n">
-        <v>163.1967624912382</v>
+        <v>177.7621842872225</v>
       </c>
       <c r="AC2" t="n">
-        <v>147.6214925272142</v>
+        <v>160.7968109096922</v>
       </c>
       <c r="AD2" t="n">
-        <v>119274.5946992879</v>
+        <v>129919.9332147109</v>
       </c>
       <c r="AE2" t="n">
-        <v>163196.7624912382</v>
+        <v>177762.1842872225</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.532401283206381e-06</v>
+        <v>1.157412946931966e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.119791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>147621.4925272142</v>
+        <v>160796.8109096922</v>
       </c>
     </row>
     <row r="3">
@@ -12867,28 +12867,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.67434319965838</v>
+        <v>89.23434086050969</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.6457072327903</v>
+        <v>122.0943619065769</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.37215201621913</v>
+        <v>110.4418473667583</v>
       </c>
       <c r="AD3" t="n">
-        <v>78674.34319965838</v>
+        <v>89234.34086050969</v>
       </c>
       <c r="AE3" t="n">
-        <v>107645.7072327903</v>
+        <v>122094.3619065768</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.02632363061107e-06</v>
+        <v>1.469950844688194e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.45625</v>
       </c>
       <c r="AH3" t="n">
-        <v>97372.15201621913</v>
+        <v>110441.8473667583</v>
       </c>
     </row>
     <row r="4">
@@ -12973,28 +12973,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>73.00402524899927</v>
+        <v>83.56402290985058</v>
       </c>
       <c r="AB4" t="n">
-        <v>99.88732805592957</v>
+        <v>114.3359827297161</v>
       </c>
       <c r="AC4" t="n">
-        <v>90.35422165904198</v>
+        <v>103.4239170095812</v>
       </c>
       <c r="AD4" t="n">
-        <v>73004.02524899927</v>
+        <v>83564.02290985058</v>
       </c>
       <c r="AE4" t="n">
-        <v>99887.32805592957</v>
+        <v>114335.9827297161</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.372502641562639e-06</v>
+        <v>1.542373658710685e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.341666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>90354.22165904198</v>
+        <v>103423.9170095812</v>
       </c>
     </row>
   </sheetData>
@@ -23387,28 +23387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.64226632326944</v>
+        <v>106.0876958744855</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.1795270535829</v>
+        <v>145.1538657542354</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.9960774541185</v>
+        <v>131.3005845314206</v>
       </c>
       <c r="AD2" t="n">
-        <v>85642.26632326943</v>
+        <v>106087.6958744855</v>
       </c>
       <c r="AE2" t="n">
-        <v>117179.5270535829</v>
+        <v>145153.8657542354</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.333286427973664e-06</v>
+        <v>1.376765124360646e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.819791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>105996.0774541186</v>
+        <v>131300.5845314206</v>
       </c>
     </row>
     <row r="3">
@@ -23493,28 +23493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>68.68029176700271</v>
+        <v>78.86042562387598</v>
       </c>
       <c r="AB3" t="n">
-        <v>93.97140515620606</v>
+        <v>107.9003134149819</v>
       </c>
       <c r="AC3" t="n">
-        <v>85.00290613781628</v>
+        <v>97.60245894172445</v>
       </c>
       <c r="AD3" t="n">
-        <v>68680.29176700271</v>
+        <v>78860.42562387598</v>
       </c>
       <c r="AE3" t="n">
-        <v>93971.40515620606</v>
+        <v>107900.3134149819</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.454404122897136e-06</v>
+        <v>1.620479941340443e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.395833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>85002.90613781629</v>
+        <v>97602.45894172446</v>
       </c>
     </row>
   </sheetData>
@@ -23790,28 +23790,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.29164213021867</v>
+        <v>80.23105595772795</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.86192875894663</v>
+        <v>109.7756703056999</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.85826397916881</v>
+        <v>99.29883440287286</v>
       </c>
       <c r="AD2" t="n">
-        <v>61291.64213021867</v>
+        <v>80231.05595772795</v>
       </c>
       <c r="AE2" t="n">
-        <v>83861.92875894663</v>
+        <v>109775.6703056999</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.228639282155402e-06</v>
+        <v>1.719351344218865e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.651041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>75858.26397916881</v>
+        <v>99298.83440287286</v>
       </c>
     </row>
   </sheetData>
@@ -24087,28 +24087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>223.6055532105913</v>
+        <v>246.5668144668776</v>
       </c>
       <c r="AB2" t="n">
-        <v>305.9469826833752</v>
+        <v>337.3635933135644</v>
       </c>
       <c r="AC2" t="n">
-        <v>276.7478320554515</v>
+        <v>305.1660854605954</v>
       </c>
       <c r="AD2" t="n">
-        <v>223605.5532105913</v>
+        <v>246566.8144668776</v>
       </c>
       <c r="AE2" t="n">
-        <v>305946.9826833752</v>
+        <v>337363.5933135644</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.843204368104077e-06</v>
+        <v>7.458038595626827e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.170833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>276747.8320554515</v>
+        <v>305166.0854605954</v>
       </c>
     </row>
     <row r="3">
@@ -24193,28 +24193,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>114.6487707340075</v>
+        <v>137.6099424817427</v>
       </c>
       <c r="AB3" t="n">
-        <v>156.8675060649944</v>
+        <v>188.2839942256352</v>
       </c>
       <c r="AC3" t="n">
-        <v>141.8962914511219</v>
+        <v>170.3144340750392</v>
       </c>
       <c r="AD3" t="n">
-        <v>114648.7707340075</v>
+        <v>137609.9424817427</v>
       </c>
       <c r="AE3" t="n">
-        <v>156867.5060649943</v>
+        <v>188283.9942256352</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.707028466708581e-06</v>
+        <v>1.107493500067258e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.808333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>141896.2914511219</v>
+        <v>170314.4340750392</v>
       </c>
     </row>
     <row r="4">
@@ -24299,28 +24299,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>99.21277948844535</v>
+        <v>110.8213766441704</v>
       </c>
       <c r="AB4" t="n">
-        <v>135.7473018549548</v>
+        <v>151.6306966185717</v>
       </c>
       <c r="AC4" t="n">
-        <v>122.791769888489</v>
+        <v>137.1592757483559</v>
       </c>
       <c r="AD4" t="n">
-        <v>99212.77948844535</v>
+        <v>110821.3766441704</v>
       </c>
       <c r="AE4" t="n">
-        <v>135747.3018549548</v>
+        <v>151630.6966185717</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.362205797828698e-06</v>
+        <v>1.234635784329495e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.51875</v>
       </c>
       <c r="AH4" t="n">
-        <v>122791.769888489</v>
+        <v>137159.2757483559</v>
       </c>
     </row>
     <row r="5">
@@ -24405,28 +24405,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>91.85574015790495</v>
+        <v>103.2937451130378</v>
       </c>
       <c r="AB5" t="n">
-        <v>125.6810760732462</v>
+        <v>141.3310590620162</v>
       </c>
       <c r="AC5" t="n">
-        <v>113.6862505673468</v>
+        <v>127.8426211445627</v>
       </c>
       <c r="AD5" t="n">
-        <v>91855.74015790495</v>
+        <v>103293.7451130378</v>
       </c>
       <c r="AE5" t="n">
-        <v>125681.0760732462</v>
+        <v>141331.0590620162</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.699334386951332e-06</v>
+        <v>1.300058223225353e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.392708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>113686.2505673468</v>
+        <v>127842.6211445627</v>
       </c>
     </row>
     <row r="6">
@@ -24511,28 +24511,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>86.6615924069481</v>
+        <v>98.09959736208094</v>
       </c>
       <c r="AB6" t="n">
-        <v>118.5742139707644</v>
+        <v>134.2241969595344</v>
       </c>
       <c r="AC6" t="n">
-        <v>107.25765740938</v>
+        <v>121.4140279865959</v>
       </c>
       <c r="AD6" t="n">
-        <v>86661.5924069481</v>
+        <v>98099.59736208094</v>
       </c>
       <c r="AE6" t="n">
-        <v>118574.2139707644</v>
+        <v>134224.1969595344</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.922291632792818e-06</v>
+        <v>1.343324820194818e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.315625</v>
       </c>
       <c r="AH6" t="n">
-        <v>107257.65740938</v>
+        <v>121414.0279865959</v>
       </c>
     </row>
     <row r="7">
@@ -24617,28 +24617,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>84.0874564145396</v>
+        <v>95.52546136967244</v>
       </c>
       <c r="AB7" t="n">
-        <v>115.0521675430877</v>
+        <v>130.7021505318578</v>
       </c>
       <c r="AC7" t="n">
-        <v>104.0717501495365</v>
+        <v>118.2281207267524</v>
       </c>
       <c r="AD7" t="n">
-        <v>84087.4564145396</v>
+        <v>95525.46136967244</v>
       </c>
       <c r="AE7" t="n">
-        <v>115052.1675430878</v>
+        <v>130702.1505318578</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.0206143933813e-06</v>
+        <v>1.362405120721725e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.283333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>104071.7501495365</v>
+        <v>118228.1207267524</v>
       </c>
     </row>
     <row r="8">
@@ -24723,28 +24723,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>84.39375945354946</v>
+        <v>95.83176440868232</v>
       </c>
       <c r="AB8" t="n">
-        <v>115.4712648741972</v>
+        <v>131.1212478629672</v>
       </c>
       <c r="AC8" t="n">
-        <v>104.4508494195718</v>
+        <v>118.6072199967877</v>
       </c>
       <c r="AD8" t="n">
-        <v>84393.75945354946</v>
+        <v>95831.76440868231</v>
       </c>
       <c r="AE8" t="n">
-        <v>115471.2648741972</v>
+        <v>131121.2478629672</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.012767036902406e-06</v>
+        <v>1.360882279834601e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.285416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>104450.8494195718</v>
+        <v>118607.2199967877</v>
       </c>
     </row>
   </sheetData>
@@ -25020,28 +25020,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>342.877329404353</v>
+        <v>366.851080321153</v>
       </c>
       <c r="AB2" t="n">
-        <v>469.1398887712227</v>
+        <v>501.9418324228339</v>
       </c>
       <c r="AC2" t="n">
-        <v>424.3658362288656</v>
+        <v>454.0372084161842</v>
       </c>
       <c r="AD2" t="n">
-        <v>342877.329404353</v>
+        <v>366851.080321153</v>
       </c>
       <c r="AE2" t="n">
-        <v>469139.8887712227</v>
+        <v>501941.8324228339</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.984009680098946e-06</v>
+        <v>5.599172575727396e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.176041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>424365.8362288657</v>
+        <v>454037.2084161842</v>
       </c>
     </row>
     <row r="3">
@@ -25126,28 +25126,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>152.7054271262374</v>
+        <v>164.6923473389127</v>
       </c>
       <c r="AB3" t="n">
-        <v>208.9383022820035</v>
+        <v>225.3393353425749</v>
       </c>
       <c r="AC3" t="n">
-        <v>188.9975239590177</v>
+        <v>203.8332654432878</v>
       </c>
       <c r="AD3" t="n">
-        <v>152705.4271262374</v>
+        <v>164692.3473389127</v>
       </c>
       <c r="AE3" t="n">
-        <v>208938.3022820035</v>
+        <v>225339.3353425749</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.046349587701243e-06</v>
+        <v>9.468931152412728e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.060416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>188997.5239590177</v>
+        <v>203833.2654432878</v>
       </c>
     </row>
     <row r="4">
@@ -25232,28 +25232,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>118.1067859756908</v>
+        <v>141.9951065293677</v>
       </c>
       <c r="AB4" t="n">
-        <v>161.5989150755286</v>
+        <v>194.2839691353769</v>
       </c>
       <c r="AC4" t="n">
-        <v>146.1761414262665</v>
+        <v>175.7417798004147</v>
       </c>
       <c r="AD4" t="n">
-        <v>118106.7859756908</v>
+        <v>141995.1065293677</v>
       </c>
       <c r="AE4" t="n">
-        <v>161598.9150755286</v>
+        <v>194283.9691353769</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.762808458470839e-06</v>
+        <v>1.081328901009794e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.680208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>146176.1414262665</v>
+        <v>175741.7798004147</v>
       </c>
     </row>
     <row r="5">
@@ -25338,28 +25338,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>107.9554481734945</v>
+        <v>120.0276197321904</v>
       </c>
       <c r="AB5" t="n">
-        <v>147.7094068491542</v>
+        <v>164.2270845623748</v>
       </c>
       <c r="AC5" t="n">
-        <v>133.6122283709656</v>
+        <v>148.5534821059479</v>
       </c>
       <c r="AD5" t="n">
-        <v>107955.4481734945</v>
+        <v>120027.6197321904</v>
       </c>
       <c r="AE5" t="n">
-        <v>147709.4068491542</v>
+        <v>164227.0845623747</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.161368360091011e-06</v>
+        <v>1.15611437123864e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.507291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>133612.2283709656</v>
+        <v>148553.4821059479</v>
       </c>
     </row>
     <row r="6">
@@ -25444,28 +25444,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>102.7229829371721</v>
+        <v>114.6245622952759</v>
       </c>
       <c r="AB6" t="n">
-        <v>140.5501170727472</v>
+        <v>156.8343830111209</v>
       </c>
       <c r="AC6" t="n">
-        <v>127.1362111626902</v>
+        <v>141.8663296150216</v>
       </c>
       <c r="AD6" t="n">
-        <v>102722.9829371721</v>
+        <v>114624.5622952759</v>
       </c>
       <c r="AE6" t="n">
-        <v>140550.1170727471</v>
+        <v>156834.3830111209</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.371472296324562e-06</v>
+        <v>1.195538110566867e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.423958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>127136.2111626902</v>
+        <v>141866.3296150216</v>
       </c>
     </row>
     <row r="7">
@@ -25550,28 +25550,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>98.30424208703457</v>
+        <v>110.2058214451383</v>
       </c>
       <c r="AB7" t="n">
-        <v>134.5042009005039</v>
+        <v>150.7884668388776</v>
       </c>
       <c r="AC7" t="n">
-        <v>121.6673087444273</v>
+        <v>136.3974271967586</v>
       </c>
       <c r="AD7" t="n">
-        <v>98304.24208703457</v>
+        <v>110205.8214451383</v>
       </c>
       <c r="AE7" t="n">
-        <v>134504.2009005039</v>
+        <v>150788.4668388776</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.536945826907936e-06</v>
+        <v>1.226587435260093e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.3625</v>
       </c>
       <c r="AH7" t="n">
-        <v>121667.3087444273</v>
+        <v>136397.4271967586</v>
       </c>
     </row>
     <row r="8">
@@ -25656,28 +25656,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>95.06216366563874</v>
+        <v>106.9637430237425</v>
       </c>
       <c r="AB8" t="n">
-        <v>130.068246173947</v>
+        <v>146.3525121123207</v>
       </c>
       <c r="AC8" t="n">
-        <v>117.65471531107</v>
+        <v>132.3848337634013</v>
       </c>
       <c r="AD8" t="n">
-        <v>95062.16366563874</v>
+        <v>106963.7430237425</v>
       </c>
       <c r="AE8" t="n">
-        <v>130068.246173947</v>
+        <v>146352.5121123207</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.654823476382652e-06</v>
+        <v>1.248705905807687e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.320833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>117654.71531107</v>
+        <v>132384.8337634013</v>
       </c>
     </row>
     <row r="9">
@@ -25762,28 +25762,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>91.98643558745505</v>
+        <v>103.8880149455588</v>
       </c>
       <c r="AB9" t="n">
-        <v>125.859899325832</v>
+        <v>142.1441652642057</v>
       </c>
       <c r="AC9" t="n">
-        <v>113.8480071796859</v>
+        <v>128.5781256320172</v>
       </c>
       <c r="AD9" t="n">
-        <v>91986.43558745505</v>
+        <v>103888.0149455588</v>
       </c>
       <c r="AE9" t="n">
-        <v>125859.899325832</v>
+        <v>142144.1652642057</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.757280653473254e-06</v>
+        <v>1.267930890899998e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.285416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>113848.0071796859</v>
+        <v>128578.1256320172</v>
       </c>
     </row>
     <row r="10">
@@ -25868,28 +25868,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>91.30124349634183</v>
+        <v>103.2028228544455</v>
       </c>
       <c r="AB10" t="n">
-        <v>124.9223892782297</v>
+        <v>141.2066552166034</v>
       </c>
       <c r="AC10" t="n">
-        <v>112.9999717752229</v>
+        <v>127.7300902275542</v>
       </c>
       <c r="AD10" t="n">
-        <v>91301.24349634182</v>
+        <v>103202.8228544455</v>
       </c>
       <c r="AE10" t="n">
-        <v>124922.3892782297</v>
+        <v>141206.6552166034</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.775814875088776e-06</v>
+        <v>1.271408637841443e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.279166666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>112999.9717752229</v>
+        <v>127730.0902275542</v>
       </c>
     </row>
   </sheetData>
@@ -26165,28 +26165,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.63156982115963</v>
+        <v>76.86661489305456</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.22230047158602</v>
+        <v>105.1722936123519</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.56599670730239</v>
+        <v>95.13479752025674</v>
       </c>
       <c r="AD2" t="n">
-        <v>58631.56982115963</v>
+        <v>76866.61489305456</v>
       </c>
       <c r="AE2" t="n">
-        <v>80222.30047158603</v>
+        <v>105172.2936123518</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.727561610526832e-06</v>
+        <v>1.682512103642773e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AH2" t="n">
-        <v>72565.99670730239</v>
+        <v>95134.79752025675</v>
       </c>
     </row>
   </sheetData>
@@ -26462,28 +26462,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.2173610569823</v>
+        <v>142.0313975398762</v>
       </c>
       <c r="AB2" t="n">
-        <v>179.5373822994941</v>
+        <v>194.3336240970009</v>
       </c>
       <c r="AC2" t="n">
-        <v>162.4025865151793</v>
+        <v>175.7866957621926</v>
       </c>
       <c r="AD2" t="n">
-        <v>131217.3610569823</v>
+        <v>142031.3975398762</v>
       </c>
       <c r="AE2" t="n">
-        <v>179537.3822994941</v>
+        <v>194333.6240970009</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.211548051103288e-06</v>
+        <v>1.073205469283018e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.263541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>162402.5865151793</v>
+        <v>175786.6957621925</v>
       </c>
     </row>
     <row r="3">
@@ -26568,28 +26568,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.58379423864407</v>
+        <v>95.48308206755847</v>
       </c>
       <c r="AB3" t="n">
-        <v>115.7312788509065</v>
+        <v>130.6441653010626</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.686048027276</v>
+        <v>118.1756695250015</v>
       </c>
       <c r="AD3" t="n">
-        <v>84583.79423864407</v>
+        <v>95483.08206755847</v>
       </c>
       <c r="AE3" t="n">
-        <v>115731.2788509065</v>
+        <v>130644.1653010626</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.774000008017378e-06</v>
+        <v>1.394958616180929e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.511458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>104686.048027276</v>
+        <v>118175.6695250015</v>
       </c>
     </row>
     <row r="4">
@@ -26674,28 +26674,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>75.69770998381422</v>
+        <v>86.42640561213641</v>
       </c>
       <c r="AB4" t="n">
-        <v>103.5729463470849</v>
+        <v>118.2524210223941</v>
       </c>
       <c r="AC4" t="n">
-        <v>93.68808971328841</v>
+        <v>106.9665759283629</v>
       </c>
       <c r="AD4" t="n">
-        <v>75697.70998381422</v>
+        <v>86426.40561213641</v>
       </c>
       <c r="AE4" t="n">
-        <v>103572.9463470849</v>
+        <v>118252.4210223941</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.282678712635625e-06</v>
+        <v>1.499709980372713e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.335416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>93688.08971328841</v>
+        <v>106966.5759283629</v>
       </c>
     </row>
     <row r="5">
@@ -26780,28 +26780,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>74.86069085663374</v>
+        <v>85.58938648495594</v>
       </c>
       <c r="AB5" t="n">
-        <v>102.4276998505994</v>
+        <v>117.1071745259086</v>
       </c>
       <c r="AC5" t="n">
-        <v>92.65214393506359</v>
+        <v>105.930630150138</v>
       </c>
       <c r="AD5" t="n">
-        <v>74860.69085663374</v>
+        <v>85589.38648495593</v>
       </c>
       <c r="AE5" t="n">
-        <v>102427.6998505994</v>
+        <v>117107.1745259086</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.340976721479514e-06</v>
+        <v>1.511715192898063e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.316666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>92652.14393506359</v>
+        <v>105930.630150138</v>
       </c>
     </row>
   </sheetData>
@@ -27077,28 +27077,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>175.0486581052984</v>
+        <v>197.5712727628452</v>
       </c>
       <c r="AB2" t="n">
-        <v>239.5092966213221</v>
+        <v>270.3257316233941</v>
       </c>
       <c r="AC2" t="n">
-        <v>216.6508655052615</v>
+        <v>244.5262232018838</v>
       </c>
       <c r="AD2" t="n">
-        <v>175048.6581052984</v>
+        <v>197571.2727628452</v>
       </c>
       <c r="AE2" t="n">
-        <v>239509.296621322</v>
+        <v>270325.7316233941</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.339187965009275e-06</v>
+        <v>8.596730254315636e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.773958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>216650.8655052615</v>
+        <v>244526.2232018838</v>
       </c>
     </row>
     <row r="3">
@@ -27183,28 +27183,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.641506606467</v>
+        <v>125.0787804094422</v>
       </c>
       <c r="AB3" t="n">
-        <v>140.4386375625945</v>
+        <v>171.1383054424689</v>
       </c>
       <c r="AC3" t="n">
-        <v>127.035371100524</v>
+        <v>154.8051057652075</v>
       </c>
       <c r="AD3" t="n">
-        <v>102641.506606467</v>
+        <v>125078.7804094422</v>
       </c>
       <c r="AE3" t="n">
-        <v>140438.6375625945</v>
+        <v>171138.3054424689</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.086560516301463e-06</v>
+        <v>1.205859699030114e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.690624999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>127035.371100524</v>
+        <v>154805.1057652075</v>
       </c>
     </row>
     <row r="4">
@@ -27289,28 +27289,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>89.97665937953151</v>
+        <v>101.1527153622843</v>
       </c>
       <c r="AB4" t="n">
-        <v>123.1100348530838</v>
+        <v>138.4016077014705</v>
       </c>
       <c r="AC4" t="n">
-        <v>111.3605859127569</v>
+        <v>125.1927525103558</v>
       </c>
       <c r="AD4" t="n">
-        <v>89976.65937953151</v>
+        <v>101152.7153622843</v>
       </c>
       <c r="AE4" t="n">
-        <v>123110.0348530838</v>
+        <v>138401.6077014706</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.694697733180911e-06</v>
+        <v>1.326342878216653e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.445833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>111360.5859127569</v>
+        <v>125192.7525103558</v>
       </c>
     </row>
     <row r="5">
@@ -27395,28 +27395,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>83.44391597559245</v>
+        <v>94.61997195834527</v>
       </c>
       <c r="AB5" t="n">
-        <v>114.1716471235203</v>
+        <v>129.4632199719071</v>
       </c>
       <c r="AC5" t="n">
-        <v>103.2752653629941</v>
+        <v>117.107431960593</v>
       </c>
       <c r="AD5" t="n">
-        <v>83443.91597559245</v>
+        <v>94619.97195834527</v>
       </c>
       <c r="AE5" t="n">
-        <v>114171.6471235203</v>
+        <v>129463.2199719071</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.013388048231231e-06</v>
+        <v>1.389481297092329e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.335416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>103275.2653629941</v>
+        <v>117107.431960593</v>
       </c>
     </row>
     <row r="6">
@@ -27501,28 +27501,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>80.47027014622545</v>
+        <v>91.64632612897827</v>
       </c>
       <c r="AB6" t="n">
-        <v>110.1029737117872</v>
+        <v>125.3945465601739</v>
       </c>
       <c r="AC6" t="n">
-        <v>99.59490043125651</v>
+        <v>113.4270670288554</v>
       </c>
       <c r="AD6" t="n">
-        <v>80470.27014622545</v>
+        <v>91646.32612897827</v>
       </c>
       <c r="AE6" t="n">
-        <v>110102.9737117872</v>
+        <v>125394.5465601739</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.148599528716321e-06</v>
+        <v>1.416269180779098e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.290625</v>
       </c>
       <c r="AH6" t="n">
-        <v>99594.90043125651</v>
+        <v>113427.0670288554</v>
       </c>
     </row>
     <row r="7">
@@ -27607,28 +27607,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>80.73649430083839</v>
+        <v>91.91255028359122</v>
       </c>
       <c r="AB7" t="n">
-        <v>110.4672333451092</v>
+        <v>125.758806193496</v>
       </c>
       <c r="AC7" t="n">
-        <v>99.92439563641601</v>
+        <v>113.7565622340149</v>
       </c>
       <c r="AD7" t="n">
-        <v>80736.49430083839</v>
+        <v>91912.55028359122</v>
       </c>
       <c r="AE7" t="n">
-        <v>110467.2333451092</v>
+        <v>125758.806193496</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.149542864626681e-06</v>
+        <v>1.416456072990866e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.290625</v>
       </c>
       <c r="AH7" t="n">
-        <v>99924.39563641601</v>
+        <v>113756.5622340149</v>
       </c>
     </row>
   </sheetData>
